--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2142417.616199524</v>
+        <v>-2145305.57646969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>306.2791980506112</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>85.21218685941405</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964033</v>
+        <v>269.8854510154498</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>123.8185760415229</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>173.3244323150252</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>56.58072854101204</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.787420751036338</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>291.5052208825713</v>
+        <v>166.3328718024859</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>86.25607698566832</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>217.1935727034696</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1686991936184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.24570521548602</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>271.1598222873246</v>
+        <v>178.9060413124614</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>17.48314223074837</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>191.9440058362632</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.72106119200248</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="C2" t="n">
-        <v>516.7818851491245</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D2" t="n">
-        <v>516.7818851491245</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E2" t="n">
-        <v>516.7818851491245</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>516.7818851491245</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1752.588145795689</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1752.588145795689</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1362.448813819877</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.426648284105</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>743.4641313436935</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>743.4641313436935</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>743.4641313436935</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>332.4782265540859</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>62.81916439716883</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.727033871796</v>
+        <v>1745.763590178429</v>
       </c>
       <c r="C8" t="n">
-        <v>863.7645169313847</v>
+        <v>1745.763590178429</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>897.2530574599469</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4841,13 +4841,13 @@
         <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>1992.792632196998</v>
+        <v>2119.229348439509</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.326873935918</v>
+        <v>1745.763590178429</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.326873935918</v>
+        <v>1745.763590178429</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>2195.822675486408</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.9834258933316</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>834.4902161044873</v>
       </c>
       <c r="W10" t="n">
-        <v>509.7760050368617</v>
+        <v>834.4902161044873</v>
       </c>
       <c r="X10" t="n">
-        <v>509.7760050368617</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y10" t="n">
-        <v>288.9834258933316</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2396.395314378669</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2213.540480033573</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1993.939015056514</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1704.863788400712</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="14">
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575531</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.562270119271</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.877781913384</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W19" t="n">
-        <v>1159.460611876424</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4710609784063</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,10 +6415,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,64 +6832,64 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>214.9229991561132</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561132</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438401</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>387.7874836212327</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>275.3456371407393</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>151.0368508858077</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.265732009449898e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>107.5049719701838</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>49.64634152661739</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>316.7463197171906</v>
+        <v>264.028781857999</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401877</v>
+        <v>16.6375473211412</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>43.26526345295079</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.31315520054606</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.17534280744522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>15.02465210191951</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>199.9223080965399</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.76564955277399</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26314,31 +26314,31 @@
         <v>48691.36674215492</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675045</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
@@ -26347,13 +26347,13 @@
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="O2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111851.1922361068</v>
+        <v>111851.1922361069</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>5677.536566682763</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682766</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="J4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977618</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735986.7827719058</v>
+        <v>-736416.3416384946</v>
       </c>
       <c r="C6" t="n">
         <v>-231203.3607866215</v>
@@ -26528,40 +26528,40 @@
         <v>-387007.1668804165</v>
       </c>
       <c r="E6" t="n">
-        <v>-817316.7627946457</v>
+        <v>-817351.5007200814</v>
       </c>
       <c r="F6" t="n">
-        <v>-46264.07141383942</v>
+        <v>-46298.8093392751</v>
       </c>
       <c r="G6" t="n">
-        <v>-46264.07141383943</v>
+        <v>-46298.80933927511</v>
       </c>
       <c r="H6" t="n">
-        <v>-46264.07141383935</v>
+        <v>-46298.80933927508</v>
       </c>
       <c r="I6" t="n">
-        <v>-46264.0714138394</v>
+        <v>-46298.80933927511</v>
       </c>
       <c r="J6" t="n">
-        <v>-251105.3161300951</v>
+        <v>-251105.3161300952</v>
       </c>
       <c r="K6" t="n">
-        <v>-55254.3789438704</v>
+        <v>-55254.37894387035</v>
       </c>
       <c r="L6" t="n">
-        <v>-55254.37894387035</v>
+        <v>-55254.37894387038</v>
       </c>
       <c r="M6" t="n">
         <v>-179462.8896519289</v>
       </c>
       <c r="N6" t="n">
-        <v>-55254.37894387033</v>
+        <v>-55254.37894387035</v>
       </c>
       <c r="O6" t="n">
-        <v>-74682.09693750211</v>
+        <v>-74682.09693750215</v>
       </c>
       <c r="P6" t="n">
-        <v>-55254.37894387043</v>
+        <v>-55254.37894387037</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.2764312377398</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>32.49464900022241</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>289.9655939792721</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196.4066683634438</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.03474447720032</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.7972326010585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>57.73574783484167</v>
+        <v>182.9080969149271</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>80.99074411295952</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28068,13 +28068,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>34.94407062035839</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>351.5042614518788</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>247.3820194983578</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256099</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,10 +35182,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>584.0846683606088</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>447.2335415013044</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>312.1603990360709</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35963,19 +35963,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>208.9080170074344</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36768,10 +36768,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>120.5443928316911</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112796</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
